--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/零售客户.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/零售客户.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t xml:space="preserve">客户编码</t>
   </si>
@@ -26,9 +26,6 @@
     <t xml:space="preserve">业态</t>
   </si>
   <si>
-    <t xml:space="preserve">验证码</t>
-  </si>
-  <si>
     <t xml:space="preserve">订货电话</t>
   </si>
   <si>
@@ -194,7 +191,7 @@
     <t xml:space="preserve">桑榆</t>
   </si>
   <si>
-    <t xml:space="preserve">2档</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">16026956365</t>
@@ -296,22 +293,21 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>15</v>
       </c>
@@ -330,308 +326,294 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
+      <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>21</v>
+      <c r="K3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4"/>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>21</v>
+      <c r="K4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>21</v>
+      <c r="K5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" t="s">
-        <v>21</v>
+      <c r="K6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7"/>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>21</v>
+      <c r="K7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="E8"/>
       <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9"/>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9" t="s">
-        <v>21</v>
+      <c r="K9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10"/>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11"/>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
       <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11" t="s">
-        <v>21</v>
+      <c r="K11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12" t="s">
-        <v>21</v>
+      <c r="K12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13"/>
       <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
         <v>61</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/零售客户.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/零售客户.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t xml:space="preserve">客户编码</t>
   </si>
@@ -47,6 +47,36 @@
     <t xml:space="preserve">状态</t>
   </si>
   <si>
+    <t xml:space="preserve">000123596326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵曦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16025962368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市场一部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曹禺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15651323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0005646653265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朝夕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16025962365</t>
+  </si>
+  <si>
     <t xml:space="preserve">00098654665</t>
   </si>
   <si>
@@ -74,28 +104,94 @@
     <t xml:space="preserve">4569612366</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0005646653265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">朝夕</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16025962365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">市场一部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000123596326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵曦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16025962368</t>
+    <t xml:space="preserve">000159684956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周超</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13026956956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00014589566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查明芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1档</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19024568525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周瑜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">城镇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510250101110090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00056952365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张杰与</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14059623654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000565653231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩玉密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19025695694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510250200000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000596235432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甄家峪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19025695696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0002698456523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">依米</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14026956362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00026956848956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桑榆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广安分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16026956365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845DSF5555SD2</t>
   </si>
   <si>
     <t xml:space="preserve">000456444465</t>
@@ -107,100 +203,13 @@
     <t xml:space="preserve">15026956123</t>
   </si>
   <si>
-    <t xml:space="preserve">000159684956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周超</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13026956956</t>
+    <t xml:space="preserve">34534534</t>
   </si>
   <si>
     <t xml:space="preserve">00065989846</t>
   </si>
   <si>
-    <t xml:space="preserve">周瑜</t>
-  </si>
-  <si>
     <t xml:space="preserve">14022569566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00014589566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查明芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1档</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19024568525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">城镇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1510250101110090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00056952365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张杰与</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14059623654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000565653231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">韩玉密</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19025695694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1510250200000038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000596235432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">甄家峪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19025695696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0002698456523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">依米</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14026956362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00026956848956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">桑榆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16026956365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张三</t>
-  </si>
-  <si>
-    <t xml:space="preserve">845DSF5555SD2</t>
   </si>
 </sst>
 </file>
@@ -301,319 +310,327 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3"/>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4"/>
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
       <c r="D4"/>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12"/>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/零售客户.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/零售客户.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t xml:space="preserve">客户编码</t>
   </si>
@@ -23,9 +23,6 @@
     <t xml:space="preserve">客户分档</t>
   </si>
   <si>
-    <t xml:space="preserve">业态</t>
-  </si>
-  <si>
     <t xml:space="preserve">订货电话</t>
   </si>
   <si>
@@ -35,24 +32,18 @@
     <t xml:space="preserve">客户经理</t>
   </si>
   <si>
-    <t xml:space="preserve">经营规模</t>
-  </si>
-  <si>
-    <t xml:space="preserve">市场类型</t>
-  </si>
-  <si>
     <t xml:space="preserve">专卖证号</t>
   </si>
   <si>
-    <t xml:space="preserve">状态</t>
-  </si>
-  <si>
     <t xml:space="preserve">000123596326</t>
   </si>
   <si>
     <t xml:space="preserve">赵曦</t>
   </si>
   <si>
+    <t xml:space="preserve">91档</t>
+  </si>
+  <si>
     <t xml:space="preserve">16025962368</t>
   </si>
   <si>
@@ -65,15 +56,15 @@
     <t xml:space="preserve">15651323</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
     <t xml:space="preserve">0005646653265</t>
   </si>
   <si>
     <t xml:space="preserve">朝夕</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">16025962365</t>
   </si>
   <si>
@@ -83,7 +74,7 @@
     <t xml:space="preserve">炸鱼</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">二</t>
   </si>
   <si>
     <t xml:space="preserve">15689562365</t>
@@ -95,12 +86,6 @@
     <t xml:space="preserve">郑楚</t>
   </si>
   <si>
-    <t xml:space="preserve">中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">乡村</t>
-  </si>
-  <si>
     <t xml:space="preserve">4569612366</t>
   </si>
   <si>
@@ -119,10 +104,7 @@
     <t xml:space="preserve">查明芳</t>
   </si>
   <si>
-    <t xml:space="preserve">1档</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正常</t>
+    <t xml:space="preserve">三</t>
   </si>
   <si>
     <t xml:space="preserve">19024568525</t>
@@ -131,9 +113,6 @@
     <t xml:space="preserve">周瑜</t>
   </si>
   <si>
-    <t xml:space="preserve">城镇</t>
-  </si>
-  <si>
     <t xml:space="preserve">1510250101110090</t>
   </si>
   <si>
@@ -143,6 +122,9 @@
     <t xml:space="preserve">张杰与</t>
   </si>
   <si>
+    <t xml:space="preserve">四</t>
+  </si>
+  <si>
     <t xml:space="preserve">14059623654</t>
   </si>
   <si>
@@ -152,6 +134,9 @@
     <t xml:space="preserve">韩玉密</t>
   </si>
   <si>
+    <t xml:space="preserve">五</t>
+  </si>
+  <si>
     <t xml:space="preserve">19025695694</t>
   </si>
   <si>
@@ -164,6 +149,9 @@
     <t xml:space="preserve">甄家峪</t>
   </si>
   <si>
+    <t xml:space="preserve">六</t>
+  </si>
+  <si>
     <t xml:space="preserve">19025695696</t>
   </si>
   <si>
@@ -173,6 +161,9 @@
     <t xml:space="preserve">依米</t>
   </si>
   <si>
+    <t xml:space="preserve">日</t>
+  </si>
+  <si>
     <t xml:space="preserve">14026956362</t>
   </si>
   <si>
@@ -182,7 +173,7 @@
     <t xml:space="preserve">桑榆</t>
   </si>
   <si>
-    <t xml:space="preserve">广安分公司</t>
+    <t xml:space="preserve">一</t>
   </si>
   <si>
     <t xml:space="preserve">16026956365</t>
@@ -290,348 +281,258 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F7"/>
       <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
       <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F10"/>
       <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
       <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F13"/>
       <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
